--- a/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Mdk-Itga4.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Mdk-Itga4.xlsx
@@ -534,46 +534,46 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>2.098888</v>
+        <v>0.5979736666666666</v>
       </c>
       <c r="H2">
-        <v>6.296664</v>
+        <v>1.793921</v>
       </c>
       <c r="I2">
-        <v>0.1082453658858517</v>
+        <v>0.03342655292740804</v>
       </c>
       <c r="J2">
-        <v>0.1082453658858517</v>
+        <v>0.03342655292740804</v>
       </c>
       <c r="K2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>26.04517333333333</v>
+        <v>0.05968133333333333</v>
       </c>
       <c r="N2">
-        <v>78.13552</v>
+        <v>0.179044</v>
       </c>
       <c r="O2">
-        <v>0.9210237118384171</v>
+        <v>0.02602747651633847</v>
       </c>
       <c r="P2">
-        <v>0.921023711838417</v>
+        <v>0.02602747651633848</v>
       </c>
       <c r="Q2">
-        <v>54.66590176725334</v>
+        <v>0.03568786572488888</v>
       </c>
       <c r="R2">
-        <v>491.99311590528</v>
+        <v>0.3211907915239999</v>
       </c>
       <c r="S2">
-        <v>0.09969654867749468</v>
+        <v>0.0008700088213402579</v>
       </c>
       <c r="T2">
-        <v>0.09969654867749465</v>
+        <v>0.000870008821340258</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,16 +596,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>2.098888</v>
+        <v>0.5979736666666666</v>
       </c>
       <c r="H3">
-        <v>6.296664</v>
+        <v>1.793921</v>
       </c>
       <c r="I3">
-        <v>0.1082453658858517</v>
+        <v>0.03342655292740804</v>
       </c>
       <c r="J3">
-        <v>0.1082453658858517</v>
+        <v>0.03342655292740804</v>
       </c>
       <c r="K3">
         <v>2</v>
@@ -620,22 +620,22 @@
         <v>0.990667</v>
       </c>
       <c r="O3">
-        <v>0.01167750336256582</v>
+        <v>0.144012433133819</v>
       </c>
       <c r="P3">
-        <v>0.01167750336256582</v>
+        <v>0.144012433133819</v>
       </c>
       <c r="Q3">
-        <v>0.6930996927653333</v>
+        <v>0.1974642594785556</v>
       </c>
       <c r="R3">
-        <v>6.237897234888</v>
+        <v>1.777178335307</v>
       </c>
       <c r="S3">
-        <v>0.001264035624114201</v>
+        <v>0.004813839218352413</v>
       </c>
       <c r="T3">
-        <v>0.001264035624114201</v>
+        <v>0.004813839218352413</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,16 +658,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>2.098888</v>
+        <v>0.5979736666666666</v>
       </c>
       <c r="H4">
-        <v>6.296664</v>
+        <v>1.793921</v>
       </c>
       <c r="I4">
-        <v>0.1082453658858517</v>
+        <v>0.03342655292740804</v>
       </c>
       <c r="J4">
-        <v>0.1082453658858517</v>
+        <v>0.03342655292740804</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,22 +682,22 @@
         <v>5.709327</v>
       </c>
       <c r="O4">
-        <v>0.06729878479901708</v>
+        <v>0.8299600903498424</v>
       </c>
       <c r="P4">
-        <v>0.06729878479901708</v>
+        <v>0.8299600903498425</v>
       </c>
       <c r="Q4">
-        <v>3.994412642792</v>
+        <v>1.138009066796333</v>
       </c>
       <c r="R4">
-        <v>35.949713785128</v>
+        <v>10.242081601167</v>
       </c>
       <c r="S4">
-        <v>0.007284781584242796</v>
+        <v>0.02774270488771537</v>
       </c>
       <c r="T4">
-        <v>0.007284781584242794</v>
+        <v>0.02774270488771537</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,40 +726,40 @@
         <v>47.625431</v>
       </c>
       <c r="I5">
-        <v>0.8187243600843848</v>
+        <v>0.8874158839838097</v>
       </c>
       <c r="J5">
-        <v>0.8187243600843847</v>
+        <v>0.8874158839838097</v>
       </c>
       <c r="K5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M5">
-        <v>26.04517333333333</v>
+        <v>0.05968133333333333</v>
       </c>
       <c r="N5">
-        <v>78.13552</v>
+        <v>0.179044</v>
       </c>
       <c r="O5">
-        <v>0.9210237118384171</v>
+        <v>0.02602747651633847</v>
       </c>
       <c r="P5">
-        <v>0.921023711838417</v>
+        <v>0.02602747651633848</v>
       </c>
       <c r="Q5">
-        <v>413.4708684899022</v>
+        <v>0.9474497408848888</v>
       </c>
       <c r="R5">
-        <v>3721.23781640912</v>
+        <v>8.527047667963998</v>
       </c>
       <c r="S5">
-        <v>0.7540645490974529</v>
+        <v>0.02309719608061435</v>
       </c>
       <c r="T5">
-        <v>0.7540645490974527</v>
+        <v>0.02309719608061436</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,10 +788,10 @@
         <v>47.625431</v>
       </c>
       <c r="I6">
-        <v>0.8187243600843848</v>
+        <v>0.8874158839838097</v>
       </c>
       <c r="J6">
-        <v>0.8187243600843847</v>
+        <v>0.8874158839838097</v>
       </c>
       <c r="K6">
         <v>2</v>
@@ -806,10 +806,10 @@
         <v>0.990667</v>
       </c>
       <c r="O6">
-        <v>0.01167750336256582</v>
+        <v>0.144012433133819</v>
       </c>
       <c r="P6">
-        <v>0.01167750336256582</v>
+        <v>0.144012433133819</v>
       </c>
       <c r="Q6">
         <v>5.242326983608556</v>
@@ -818,10 +818,10 @@
         <v>47.180942852477</v>
       </c>
       <c r="S6">
-        <v>0.009560656467899956</v>
+        <v>0.1277989206541073</v>
       </c>
       <c r="T6">
-        <v>0.009560656467899954</v>
+        <v>0.1277989206541073</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,10 +850,10 @@
         <v>47.625431</v>
       </c>
       <c r="I7">
-        <v>0.8187243600843848</v>
+        <v>0.8874158839838097</v>
       </c>
       <c r="J7">
-        <v>0.8187243600843847</v>
+        <v>0.8874158839838097</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,10 +868,10 @@
         <v>5.709327</v>
       </c>
       <c r="O7">
-        <v>0.06729878479901708</v>
+        <v>0.8299600903498424</v>
       </c>
       <c r="P7">
-        <v>0.06729878479901708</v>
+        <v>0.8299600903498425</v>
       </c>
       <c r="Q7">
         <v>30.21212878832633</v>
@@ -880,10 +880,10 @@
         <v>271.909159094937</v>
       </c>
       <c r="S7">
-        <v>0.05509915451903197</v>
+        <v>0.736519767249088</v>
       </c>
       <c r="T7">
-        <v>0.05509915451903197</v>
+        <v>0.7365197672490881</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -912,40 +912,40 @@
         <v>4.248192</v>
       </c>
       <c r="I8">
-        <v>0.07303027402976368</v>
+        <v>0.07915756308878232</v>
       </c>
       <c r="J8">
-        <v>0.07303027402976367</v>
+        <v>0.07915756308878232</v>
       </c>
       <c r="K8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L8">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M8">
-        <v>26.04517333333333</v>
+        <v>0.05968133333333333</v>
       </c>
       <c r="N8">
-        <v>78.13552</v>
+        <v>0.179044</v>
       </c>
       <c r="O8">
-        <v>0.9210237118384171</v>
+        <v>0.02602747651633847</v>
       </c>
       <c r="P8">
-        <v>0.921023711838417</v>
+        <v>0.02602747651633848</v>
       </c>
       <c r="Q8">
-        <v>36.88163233109333</v>
+        <v>0.08451258760533334</v>
       </c>
       <c r="R8">
-        <v>331.93469097984</v>
+        <v>0.760613288448</v>
       </c>
       <c r="S8">
-        <v>0.0672626140634697</v>
+        <v>0.002060271614383863</v>
       </c>
       <c r="T8">
-        <v>0.06726261406346969</v>
+        <v>0.002060271614383863</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -974,10 +974,10 @@
         <v>4.248192</v>
       </c>
       <c r="I9">
-        <v>0.07303027402976368</v>
+        <v>0.07915756308878232</v>
       </c>
       <c r="J9">
-        <v>0.07303027402976367</v>
+        <v>0.07915756308878232</v>
       </c>
       <c r="K9">
         <v>2</v>
@@ -992,22 +992,22 @@
         <v>0.990667</v>
       </c>
       <c r="O9">
-        <v>0.01167750336256582</v>
+        <v>0.144012433133819</v>
       </c>
       <c r="P9">
-        <v>0.01167750336256582</v>
+        <v>0.144012433133819</v>
       </c>
       <c r="Q9">
-        <v>0.4676159582293333</v>
+        <v>0.4676159582293334</v>
       </c>
       <c r="R9">
-        <v>4.208543624063999</v>
+        <v>4.208543624064</v>
       </c>
       <c r="S9">
-        <v>0.0008528112705516689</v>
+        <v>0.01139967326135932</v>
       </c>
       <c r="T9">
-        <v>0.0008528112705516688</v>
+        <v>0.01139967326135932</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1036,10 +1036,10 @@
         <v>4.248192</v>
       </c>
       <c r="I10">
-        <v>0.07303027402976368</v>
+        <v>0.07915756308878232</v>
       </c>
       <c r="J10">
-        <v>0.07303027402976367</v>
+        <v>0.07915756308878232</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,22 +1054,22 @@
         <v>5.709327</v>
       </c>
       <c r="O10">
-        <v>0.06729878479901708</v>
+        <v>0.8299600903498424</v>
       </c>
       <c r="P10">
-        <v>0.06729878479901708</v>
+        <v>0.8299600903498425</v>
       </c>
       <c r="Q10">
-        <v>2.694924142975999</v>
+        <v>2.694924142976</v>
       </c>
       <c r="R10">
         <v>24.254317286784</v>
       </c>
       <c r="S10">
-        <v>0.004914848695742311</v>
+        <v>0.06569761821303913</v>
       </c>
       <c r="T10">
-        <v>0.00491484869574231</v>
+        <v>0.06569761821303913</v>
       </c>
     </row>
   </sheetData>
